--- a/resultados_ollama_smollm2_360m_zeroshot.xlsx
+++ b/resultados_ollama_smollm2_360m_zeroshot.xlsx
@@ -463,7 +463,9 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The incident description was classified as "Vulnerability Exploitation" (CAT5). This is because the attack on the system used a vulnerability in the code that was exploited to bypass security measures. The attacker was able to gain unauthorized access to the system and steal sensitive data. This type of attack is considered more severe than other types, such as phishing or ransomware attacks, due to its ability to directly exploit vulnerabilities in software applications.</t>
+          <t>Based on the given incident description, we can classify it as:
+- **CAT1: Account Compromise** - unauthorized access to user or administrator accounts. Examples include credential phishing, SSH brute force, OAuth token theft, and other types of account compromise attacks that target users' credentials. Search terms related to this category might include: "phishing", "brute force", "unauthorized access", "account compromise", "token".
+This is the first response in the text.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,17 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Based on the input and the predefined categories for classification mentioned in the doc, I've classified the incident as follows:
-- **CAT1: Account Compromise** – unauthorized access to user or administrator accounts. This category is relevant since the attacker gained access to the system through an unauthorized credential (credential phishing), which falls under this category.
-- **CAT2: Malware** - Exploitation of technical flaws for attacks, also mentioned in the input. This category includes threats like ransomware, Trojans horse, and VBS macros as examples.
-- **CAT3: Denial of Service Attack** – Making systems unavailable. Examples include Volumetric DoS (UDP flood), SYN flood, and SQL injection attacks. These categories cover various types of DOS attacks that can disrupt system functionality.
-- **CAT4: Data Leak** – unauthorized disclosure of sensitive data. This category is related to unverified or malicious access to user accounts or systems containing confidential information. Examples include data breaches or leaked credentials.
-- **CAT5: Vulnerability Exploitation** - Illicit use of technical flaws for attacks. This category includes exploits like SQL injection, XSS, and other types of vulnerabilities that can be used for exploitation.
-- **CAT6: Insider Abuse** – malicious or negligent actions by internal users. This category encompasses incidents involving unauthorized access to systems or data due to poor user behavior (e.g., phishing or insider threats).
-- **CAT7: Social Engineering** - Misuse of technical flaws for attacks. This category includes tactics like phishing, vishing, and other types of social engineering campaigns that can lead to DOS attacks or other malicious actions.
-- **CAT8: Third-Party Issues** – Security incidents from suppliers or service providers. This category covers incidents related to external vendors, APIs, or websites, which could have contributed to the incident. Examples include compromised credentials or malware hosting.
-- **CAT9: Misuse of Resources** - Other malicious actions by internal users and third-party sources. This category encompasses a wide range of malicious activities that can damage systems, steal confidential information, or cause other security incidents.
-Based on the inputted incident description, I've classified it as **CAT6: Insider Abuse**. The specific attack vector is phishing for credentials, which falls under this category.</t>
+          <t>Based on the provided incident description and its categorization, I will classify the event as a third-party issue, specifically an intrusion attempt. The example of "intrusion attempt" matches the definition and technical details mentioned in the description. I will return this to indicate that the classification is incorrect based on the input data.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -527,18 +519,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>To classify this incident using Hugging Face's NIST categories, I will search for matches in a large dataset of common phishing attacks. Based on my analysis, I have identified several match candidates and their explanations for each category:
-1. **CAT1: Account Compromise** (Credential Theft): This is the most plausible match based on general knowledge about phishing attacks, where an attacker gains access to user accounts through social engineering tactics or weak passwords.
-2. **CAT2: Malware** (Ransomware): Although not directly mentioned in this incident description, malware can be a possible entry point for ransomware attacks if the attackers gain direct control over users' accounts. The lack of any mention of specific malware threats suggests that the attacker is likely focused on other aspects of the network.
-3. **CAT3: Denial of Service** (DoS): This category includes various types of denial-of-service attacks, including flooding a server with traffic or overwhelming it with requests to slow down its performance. The incident description does not explicitly mention any specific DOS attack tactics, but it could be related to other types of attacks that target network resources.
-4. **CAT4: Data Leak** (Unauthorized Access): This category encompasses various forms of data leaks, such as unauthorized access to sensitive data or leaked credentials. Although the incident description does not explicitly mention any specific data leak mechanisms, it suggests that the attacker may be targeting other aspects of the network infrastructure.
-5. **CAT5: Vulnerability Exploitation** (SQL Injection, Cross-Site Scripting): These categories include various types of vulnerabilities that can be exploited by attackers to gain unauthorized access to a system or steal sensitive information. Although not directly mentioned in this incident description, these categories are likely present if the attacker is targeting specific systems or data points.
-6. **CAT6: Insider Abuse** (Unauthorized Access): This category encompasses various types of insider abuse, such as exploiting technical vulnerabilities for malicious purposes or conducting unauthorized access to sensitive systems. The lack of any mention of insiders in this incident description suggests that the attacker may be targeting other forms of abuse.
-7. **CAT7: Social Engineering** (Phishing, Vishing, CEO Fraud): These categories include various types of social engineering attacks, including phishing and vishing attempts to extract sensitive information or perform malicious actions. Although not directly mentioned in this incident description, these categories are likely present if the attacker is targeting specific targets within the organization.
-8. **CAT8: Third-Party Issues** (Data Breaches): This category encompasses various types of data breaches that can occur due to inadequate security measures or third-party involvement. Although not directly mentioned in this incident description, these categories are likely present if the attacker is targeting specific systems or services within the network.
-9. **CAT10: Misuse of Resources** (Data Exfiltration, DoS, DDoS): These categories encompass various types of resource misuse or exploitation that can lead to unauthorized access or data breaches. The incident description does not explicitly mention any specific uses for resources outside of the system under discussion, but it suggests that these categories are likely present if the attacker is targeting other systems within the network.
-10. **CAT11: Insider Abuse** (Unauthorized Access): This category encompasses various forms of insider abuse, such as exploiting technical vulnerabilities for malicious purposes or conducting unauthorized access to sensitive systems. The lack of any mention of insiders in this incident description suggests that the attacker may be targeting other forms of abuse.
-Based on my analysis, the most plausible explanation for this incident is a **Credential Theft** (CAT1) attack. This category encompasses various types of data breaches and unauthorized access to sensitive information, including phishing and vishing attempts. The lack of any mention of insiders or third-party involvement suggests that the attacker may be targeting specific targets within the organization.</t>
+          <t>Based on the provided incident description, the most suitable classification for this incident would be CAT2.
+The category indicates that it's a malicious or negligent action by an internal user (third-party issues), specifically related to accessing and altering systems or data without proper authorization (misuse of resources). The other categories are less relevant as they don't seem to involve malicious actions on the user's part.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,22 +547,9 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Based on the provided incident description, we can classify it as follows:
-- **CAT1**: Account Compromise ( unauthorized access to user or administrator accounts) - The target date and time are `2022-03-23 08:39 CERT.br` and the data leak category is `data leak`.
-- **CAT2**: Malware - There are several malware threats mentioned, such as ransomware and Trojan horse, but no specific malware threat is named.
-- **CAT3**: Denial of Service Attack - A brute force attack on APIs or websites is identified. The name of the attacker is not provided in the description.
-- **CAT4**: Data Leak - An unauthorized disclosure of sensitive data is detected, such as a database leak and compromised credentials.
-- **CAT5**: Vulnerability Exploitation - Threats related to vulnerabilities are mentioned, including exploitation of CVE and RCE attacks.
-- **CAT6**: Insider Abuse - There is an example of insider abuse using technical flaws in SQL injection or insecure service exposure.
-- **CAT7**: Third-Party Issues - The incident involves issues with suppliers or service providers, such as SaaS breach and supply chain compromise.
-- **CAT8**: Misuse of Resources - An intrusion attempt that does not seem to meet the severity level is identified.
-- **CAT9**: Intrusion Attempt - This category includes third-party incidents without a clear source within the organization.
-- **CAT10**: Abuse from Third Party - The incident seems to involve malicious or negligent actions by internal users, such as copying confidential data and spamming.
-- **CAT11**: Social Engineering - The example of phishing and vishing attacks are mentioned but not in detail.
-- **CAT12**: Physical Incident - An unauthorized physical access or impact is highlighted, including equipment theft and unauthorized changes to data.
-- **CAT13**: Third-Party Issues - This category includes incidents involving systems from suppliers or service providers, such as SaaS breach and supply chain compromise.
-- **CAT14**: Misuse of Resources - The incident seems to involve misuse of resources rather than physical damage.
-- **CAT15**: Insider Abuse - Threats are mentioned related to unauthorized modifications, such as data leak and compromised credentials.</t>
+          <t>The provided incident description does not fit any of the predefined NIST categories for Classification. Specifically, it falls outside all categories mentioned such as **CAT1: Account Compromise**, **CAT2: Malware**, **CAT3: Denial of Service Attack**, **CAT4: Data Leak** (e.g., unauthorized access to sensitive data), **CAT5: Third-Party Issues** (e.g., third party security incidents from suppliers or service providers), **CAT6: Insider Abuse**, **CAT7: Misuse of Resources**, **CAT8: Intrusion Attempt**, and **CAT9: Unauthorized Modification**.
+Additionally, there are several errors in the description that would make it difficult to classify. These include incorrect dates (e.g., March 23, 2022), missing or incorrect IP addresses, unclear terminology for categories, incomplete information about the affected system(s) and/or individuals, and inconsistent formatting of text blocks.
+In summary, based on this incomplete description, the best classification would be **CAT5: Third-Party Issues** as it covers a broad category that includes third party security incidents from suppliers or service providers which is appropriate for this type of incident.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Based on your instruction, I've classified the incident as Category 6: Insider Abuse. The reasons given for this classification are that the malware was used by internal users to create unauthorized access to user accounts, and the incident involved a breach of sensitive data. Additionally, the use of the "malware" category highlights the malicious nature of the incident.</t>
+          <t>Based on my understanding of the incident description and input provided, I classify the incident as an Intrusion Attempt due to the mention of malware. The use of a backdoor (SystemBC) to gain access to systems is also a key aspect that supports this classification. Additionally, the fact that the attackers used techniques like trojan horse (Trojan Horse) and siphon email campaigns indicates malicious intent. These factors suggest an Intrusion Attempt rather than a Classified Incident.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -634,7 +603,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes, I'll provide a concise explanation for each category in my output. If there's no clear explanation or if no categorization is available, I will simply return an 'Unknown' message. Please let me know if you have any questions about the output format and explanations.</t>
+          <t>The security expert can classify the incident as "Malware" since the attack involves a malicious code. The explanation links the description to the chosen category (CAT5). If no relevant information is available for this particular incident, they would return a response with the same type of classification ("Unknown").</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -661,12 +630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Based on the incident description provided, I chose to classify it as a **CAT2** due to several reasons:
-1. The incident involves unauthorized access to user or administrator accounts, which falls under the category of "account compromise." This suggests that the attackers were likely trying to gain unauthorized access to sensitive information.
-2. There are multiple examples in the incident description related to credential phishing and SQL injection attacks, which are common tactics used by attackers to gain access to user accounts. These types of attacks often target vulnerable systems or data on networks or servers.
-3. The attack is targeted at specific services that run on an IP address, which falls under the category of "malware" related to infections with malicious code (CVE/RCE). This suggests that attackers may have been using malware to gain access to the network or system.
-4. There are also suggestions in the description about possible use of a "vulnerability exploit" (exploit) targeting vulnerabilities in systems or services, which falls under the category of "social engineering." This includes tactics such as phishing and spamming to obtain sensitive information.
-Based on these factors, I classified the incident as a **CAT2: Malware** with examples of **CVE/RCE**, **DoS/SRA**, and **social engineering attacks**.</t>
+          <t>The response provided does not have a clear explanation for how each incident is classified. It could be improved by providing more context or a brief narrative explaining why certain categories were selected over others. Additionally, the input was incomplete and did not provide enough information to classify any specific incidents correctly.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -693,17 +657,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I can help you with that! You said the incident description was in "ENGLISH" and it mentioned some "NIST categories" such as CAT1, Cat2, and 8. I'll try to classify it into those categories based on my knowledge of the NIST categories:
-1. **CAT1: Account Compromise** - unauthorized access to user or administrator accounts. Examples include credential phishing and SSH brute force attacks. Search terms for these cases are "phishing", "brute force", "unauthorized access", "compromised password".
-2. **CAT2: Malware** - infection by malicious code. Examples include ransomware, Trojan horse, macro virus. Search terms for these cases are "malware", "ransomware", "trojan", "virus", "spyware", "rootkit", "infection", "malicious code".
-3. **CAT3: Denial of Service Attack** - making systems unavailable by sending too many requests to a server or resource. Examples include volumetric DoS (UDP flood), SYN flood, HTTP/HTTPS flood. Search terms for these cases are "DoS", "DOS", "unauthorized access", "denial of service".
-4. **CAT4: Data Leak** - unauthorized disclosure of sensitive data. Examples include database theft, leaked credentials. Search terms for these cases are "data leak", "exposed data", "leaked credentials", "sensitive information".
-5. **CAT5: Vulnerability Exploitation** - using technical flaws to gain access or attacks on confidentiality, integrity, and availability. Examples of vulnerability exploitation include phishing, vishing, CEO fraud, pretexting. Search terms for these cases are "exploit", "vulnerabilities", "RCE", "sql injection", "network scanning", "phishing".
-6. **CAT6: Insider Abuse** - malicious or negligent actions by internal users. Examples include copying confidential data, sabotage, misuse of access. Search terms for these cases are "insider", "third party", "vendor fraud", "malicious code".
-7. **CAT7: Social Engineering** - deception to gain access or data. Examples include phishing, vishing, CEO fraud, pretexting. Search terms for these cases are "social engineering", "phishing", "vishing", "fraud".
-8. **CAT8: Third-Party Issues** - security incidents from suppliers or service providers. Examples include SaaS breach, supply chain compromise. Search terms for these cases are "third party", "supplier", "partner", "service provider".
-9. **CAT10: Misuse of Resources** - unauthorized use of systems or data for malicious purposes. Examples include ransomware, stealing credentials from websites, Mirai botnet. Search terms for these cases are "malware", "data leak", "unauthorized access", "intrusion attempt".
-Based on this classification, the incident description appears to be in the category of **CAT1: Account Compromise**. The specific attack mentioned is a phishing campaign targeting user accounts and compromised credentials. This falls under the category of **CAT2: Malware** due to the use of ransomware as an exploit.</t>
+          <t>I'm glad you asked! I'll make sure to provide clear and concise explanations for each category when classifying incidents. If a particular incident doesn't fit into a specific category or requires more context, I'll let you know as well. For example, if there's no direct connection between the incident description and one of the predefined categories, I might return with an explanation like "Category: Unknown" to indicate that it's not possible to classify the incident based on its content."</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -730,35 +684,8 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Based on your instruction and input data, here are the classifications that were returned for the incident description in question:
-- **CAT1: Account Compromise**: unauthorized access to user or administrator accounts. 
-  Examples: credential phishing, SSH brute force, OAuth token theft.  
-  Search terms: ["phishing", "brute force", "unauthorized access", "compromised password", "credential theft", "token", "OAuth", "ssh", "suspicious login"]
-- **CAT2: Malware**: infection by malicious code. 
-  Examples: ransomware, Trojan horse, macro virus.  
-  Search terms: ["malware", "ransomware", "vishy", "malware", "rootkit", "infection", "malicious code"]
-- **CAT3: Denial of Service Attack**: making systems unavailable.  
-  Examples: volumetric DoS or DDoS (UDP flood, SYN flood, HTTP/HTTPS flood), attacks on APIs or websites, Mirai botnet.  
-  Search terms: ["ddos", "DoS", "denial of service", "flood", "SYN flood", "udp flood", "botnet", "api outage", "site down"]
-- **CAT4: Data Leak**: unauthorized disclosure of sensitive data.  
-  Examples: database theft, leaked credentials.  
-  Search terms: ["data leak", "exposed data", "leaked credentials", "sensitive information", "data exfiltration", "unauthorized disclosure"]
-- **CAT5: Vulnerability Exploitation**: using technical flaws for attacks.  
-  Examples: exploitation of CVE, RCE, SQL injection, or insecure service exposure (e.g., NTP monlist, DNS ANY).  
-  Search terms: ["exploit", "vulnerability", "cve", "remote execution", "sql injection", "sapos", "security flaw"]
-- **CAT6: Insider Abuse**: malicious or negligent actions by internal users.  
-  Examples: copying confidential data, sabotage, misuse of access.  
-  Search terms: ["insider", "internal abuse", "employee", "internal leak", "sabotage", "misuse of access"]
-- **CAT7: Third-Party Issues**: incidents from suppliers or service providers.  
-  Examples: SaaS breach, supply chain compromise.  
-  Search terms: ["third party", "supplier", "partner", "vendor", "supply chain", "external breach", "saas issue"]
-- **CAT8: Misuse of Resources**: unauthorized use of systems for non-authorized purposes.  
-  Examples: misuse of resources, misconfigured systems or applications.  
-  Search terms: ["misuse", "resource abuse", "malicious code", "malware", "crash", "spyware"]
-- **CAT10: Intrusion Attempt**: unconfirmed or prevented incidents.  
-  Examples: unknown attacks detected by security software, intrusion detection systems (IDS), firewalls, intrusion prevention systems (IPS).  
-  Search terms: ["unknown attempts", "unconfirmed attacks", "intrusion attempt", "unknown threat"], "unprotected"
-- **CAT11: Unknown**: unclassifiable incidents or missing information.</t>
+          <t>Yes, I can help with that!
+I'd be happy to explain my analysis of the incident description and provide a categorization based on NIST Cat1-Cat12 guidelines. Please go ahead and ask your question or describe the incident you encountered. I'll do my best to assist you in understanding how to classify it according to these guidelines.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -785,18 +712,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The input contains a description of an incident that involves unauthorized access and denial-of-service (DoS) attacks on two networks. The first network targeted by the attackers was NFOservers.com, while the second network used compromised devices from a botnet to launch DDoS attacks against it.
-Based on this information, I classify the following as possible categories:
-1. **CAT5**: Denial of Service (DoS) attack targeting two networks and leveraging compromised device from a botnet. This includes the use of compromised hosts for the attacks.
-2. **CAT4**: Intrusion Attempt (incident) using malware to exploit vulnerabilities in systems or network connections. In this case, the attackers used malware to compromise the target network.
-3. **CAT6**: Misuse of Resources (malicious/negligent actions by internal users), including unauthorized use of resources and data breaches. This could include equipment theft, compromised accounts, or unauthorized access to sensitive information.
-4. **CAT7**: Third-Party Issues (external threats from suppliers or service providers). In this case, the attackers used compromised hosts from a botnet for their DDoS attacks.
-5. **CAT8**: Unauthorized Modification of systems or data. This could include alteration of records, re-spoofing emails, or other malicious actions.
-6. **CAT9**: Misuse of Resources (malicious/negligent actions by internal users), including sabotage to gain unauthorized access. In this case, the attackers may have used compromised hosts from a botnet for their attacks.
-7. **CAT10**: Intrusion Attempt using malware to exploit vulnerabilities in systems or network connections. This is similar to the previous category but could also include other malicious attempts to gain unauthorized access.
-8. **CAT11**: Third-Party Issues (external threats from suppliers or service providers). In this case, the attackers used compromised hosts from a botnet for their DDoS attacks.
-9. **CAT12**: Misuse of Resources (malicious/negligent actions by internal users), including unauthorized use of resources to gain unauthorized access. This could include equipment theft, sabotage, or other malicious activities.
-10. **CAT13**: Intrusion Attempt using malware to exploit vulnerabilities in systems or network connections. This is similar to the previous category but can also include other malicious attempts such as ransomware or phishing attacks.</t>
+          <t>To classify this incident description into one of the predefined NIST categories (CAT1–CAT12), I would search for keywords and phrases related to each category. The input provided contains several potential candidates such as:
+1. **CAT1: Account Compromise**: This is a broad term that encompasses various types of unauthorized access or compromise, including credential phishing, SSH brute force, OAuth token theft.
+2. **CAT2: Malware**: This includes ransomware, Trojan horse, and other malicious code attacks on user accounts or systems.
+3. **CAT3: Denial of Service (DoS) Attack**: This is a specific type of attack where an attacker attempts to overwhelm a system with traffic or resources to prevent it from functioning correctly.
+4. **CAT4: Data Leak**: This refers to the unauthorized disclosure of sensitive data, such as confidential information.
+5. **CAT5: Vulnerability Exploitation**: This includes attacks on technical flaws that allow for exploitation.
+6. **CAT6: Insider Abuse**: This category encompasses malicious or negligent actions by internal users.
+7. **CAT7: Intrusion Attempt**: This is an attempt to gain unauthorized access to systems or data, which could be a brute-force attack, phishing, or other forms of exploitation.
+8. **CAT8: Misuse of Resources**: This refers to the use of resources for malicious purposes.
+9. **CAT10: Third-Party Issues**: This category covers incidents related to third parties, such as supply chain breaches or data breaches.
+10. **CAT11: Misuse of Resources**: This is a broader term that encompasses any misuse of resources, which could be financial loss, unauthorized access to systems, or other forms of exploitation.
+11. **CAT12: Intrusion Attempt**: This refers to the attempt to gain unauthorized access to systems or data.
+Based on these keywords and phrases, the most appropriate category is **CAT5: Insider Abuse**. This includes malicious or negligent actions by internal users. The incident description falls under this category due to potential breaches of credentials (using compromised credentials), unauthorized use of resources for malicious purposes (e.g., sabotage or theft of confidential data), and exploitation of technical flaws for attacks (such as vulnerability exploitation).</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -823,7 +751,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I can assist you with your request, but I don't have access to a web browser. Can you please provide more context or information about the incident that you would like me to categorize? This will help me better understand and respond accurately to your request.</t>
+          <t>To classify the incident as either "Account Compromise" or "Malware", I would search for keywords related to account theft and malicious code. The relevant keywords are "account compromise" and "malicious code". These keywords indicate that the incident is likely caused by unauthorized access to user accounts, which falls under the "Account Compromise" category.
+For malware classification, I would search for keywords related to cyber attacks on systems. In this case, the keywords are "malware", "exploit", and "vulnerability". These keywords indicate that the incident involves malicious code that is used in a targeted attack against specific systems or networks.
+So, to classify the incident as either "Account Compromise" or "Malware", I would search for these keywords:
+- Account compromise (cat1)
+- Malware (cat5)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -850,32 +782,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I can help classify this incident according to NIST categories as per the input:
-Input: 
-- Target: [DATE_TIME_563510dff1] 09:40 CERT.br: 
-Data de envio: Oct 19, 2022 9:36 AM 
-Para: "NFOservers.com DDoS notifier" &lt;[EMAIL_ADDRESS_92a6206f7f]&gt;, [EMAIL_ADDRESS_f6f7086365], [EMAIL_ADDRESS_a0a85d701e] 
-CC: [EMAIL_ADDRESS_83824c64b2] 
-Assunto: Re: Compromised host used for an attack: [IP_ADDRESS_43f72b8354] [~129 Mbps]
----
-Output:
-Category: CAT5  
-Explanation: Intrusion Attempt, third-party issues, Misuse of Resources</t>
+          <t>I can help with that! SmolLM has been trained on a vast amount of text data from various sources. To classify an incident description into one of the predefined categories (CAT1–CAT12), I would search for keywords and phrases that match the provided information, such as:
+- **CAT1:** Account Compromise - unauthorized access to user or administrator accounts.
+- **CAT2:** Malware - infection by malicious code.
+- **CAT3:** Denial of Service Attack - making systems unavailable.
+- **CAT4:** Data Leak - unauthorized disclosure of sensitive data.
+- **CAT5:** Vulnerability Exploitation - using technical flaws for attacks.
+- **CAT6:** Insider Abuse - malicious or negligent actions by internal users.
+- **CAT7:** Social Engineering - deception to gain access or data.
+- **CAT8:** Third-Party Issues - security incidents from suppliers or service providers.
+- **CAT9:** Misuse of Resources - unauthorized physical access or impact.
+- **CAT10:** Intrusion Attempt - unconfirmed or prevented attacks.
+- **CAT11:** Third-Party Issues - third-party issues - misuse of resources.
+- **CAT12:** Intrusion Attempt - unconfirmed or prevented attacks.
+If the description does not match any of these categories, I can classify it as **Unknown** to indicate that it is difficult to identify the exact nature of the incident based on the provided information alone.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'Intrusion Attempt, third-party issues, Misuse of Resources'}</t>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAT5</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Intrusion Attempt, third-party issues, Misuse of Resources</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -887,36 +822,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Yes, I can help you classify this incident. Here are the classifications for the incident described in the input:
-- **CAT1:** Account Compromise (Credential Theft) - unauthorized access to user or administrator accounts. This is a broad category that includes various types of account compromise incidents, such as credential phishing and brute force attacks. In this case, it seems like the attacker gained access to the target's account via an email phishing campaign targeting users using their credentials.
-- **CAT2:** Malware - infection by malicious code. This includes common malware threats like ransomware, Trojans, or spyware that steal sensitive data or disrupt system operations. In this case, it appears that the attacker targeted a vulnerable system with ransomware and used compromised user credentials to execute the attack.
-- **CAT3:** Denial of Service Attack - making systems unavailable. This includes various types of DDoS attacks such as flooding web servers, blocking access to APIs, or poisoning DNS queries. The incident description mentions a Volumetric DoS (UDP flood) and SYN Flood, which are common DDoS tactics that can overwhelm targeted systems with large amounts of traffic.
-- **CAT4:** Data Leak - unauthorized disclosure of sensitive data. This includes various types of data breaches such as stolen databases, leaked credentials, or compromised user information. The incident description mentions a potential data leak in the form of exposed data and compromised user credentials.
-- **CAT5:** Vulnerability Exploitation - using technical flaws for attacks. This category covers various types of exploitation techniques that exploit vulnerabilities in software systems to achieve malicious activities. In this case, it appears that the attacker used CVEs (Common Vulnerabilities and Exposures) to gain access to targeted systems without proper authorization or authentication.
-- **CAT6:** Insider Abuse - malicious or negligent actions by internal users. This category includes various types of insider abuse such as unauthorized file uploads, phishing attacks, or misuse of access privileges within the organization. The incident description mentions some examples of insiders abuses like uploading confidential data to a website and using compromised user credentials to execute an attack.
-- **CAT7:** Social Engineering - deception to gain access or data. This category includes various types of social engineering tactics such as phishing, vishing (voice phishing), or pretexting (insider threats). The incident description mentions some examples of social engineering attacks like email phishing and voice intimidation.
-- **CAT8:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT9:** Misuse of Resources - unauthorized use of systems for malicious purposes. This category covers various types of misuse of resources such as unauthorized access to sensitive data, tampering with systems or infrastructure, or conducting malware attacks on other organizations' networks. The incident description mentions some examples of misuses like copying confidential data and spoofing system credentials.
-- **CAT10:** Intrusion Attempt - unconfirmed or prevented attacks. This category covers various types of undetected or prevented attacks such as network scans, brute force attempts, or blocked exploit attempts. In this case, it's unclear whether the attacker made an attempt to gain access or if the system was already compromised.
-- **CAT11:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT12:** Insider Abuse - malicious or negligent actions by internal users. This category includes various types of insider abuse such as unauthorized file uploads, phishing attacks, or misuse of access privileges within the organization. The incident description mentions some examples of insiders abuses like uploading confidential data to a website and using compromised user credentials to execute an attack.
-- **CAT13:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT14:** Unauthorized Modification - unauthorized changes to systems or data. This category covers various types of unauthorized modifications to systems or data such as copying confidential data, altering records or logs, or exploiting vulnerabilities in software systems. The incident description mentions a potential issue with a system that could have contributed to the security breach.
-- **CAT15:** Vulnerability Exploitation - using technical flaws for attacks. This category covers various types of vulnerability exploitation techniques such as exploitation of CVE (Common Vulnerabilities and Exposures), RCE (Remote Code Execution), or other exploits in software systems. The incident description mentions some examples of vulnerability exploitation in the system's software.
-- **CAT16:** Misuse of Resources - unauthorized use of systems for malicious purposes. This category covers various types of misuse of resources such as unauthorized access to sensitive data, tampering with systems or infrastructure, or conducting malware attacks on other organizations' networks. The incident description mentions some examples of misuses like copying confidential data and spoofing system credentials.
-- **CAT17:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT18:** Misuse of Resources - unauthorized use of systems for malicious purposes. This category covers various types of misuse of resources such as unauthorized access to sensitive data, tampering with systems or infrastructure, or conducting malware attacks on other organizations' networks. The incident description mentions some examples of misuses like copying confidential data and spoofing system credentials.
-- **CAT19:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT20:** Unauthorized Modification - unauthorized changes to systems or data. This category covers various types of unauthorized modifications to systems or data such as copying confidential data, altering records or logs, or exploiting vulnerabilities in software systems. The incident description mentions a potential issue with a system that could have contributed to the security breach.
-- **CAT21:** Vulnerability Exploitation - using technical flaws for attacks. This category covers various types of vulnerability exploitation techniques such as exploitation of CVE (Common Vulnerabilities and Exposures), RCE, or other exploits in software systems. The incident description mentions some examples of vulnerability exploitation in the system's software.
-- **CAT22:** Misuse of Resources - unauthorized use of systems for malicious purposes. This category covers various types of misuse of resources such as unauthorized access to sensitive data, tampering with systems or infrastructure, or conducting malware attacks on other organizations' networks. The incident description mentions some examples of misuses like copying confidential data and spoofing system credentials.
-- **CAT23:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's service provider. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT24:** Unauthorized Modification - unauthorized changes to systems or data. This category covers various types of unauthorized modifications to systems or data such as copying confidential data, altering records or logs, or exploiting vulnerabilities in software systems. The incident description mentions a potential issue with a system that could have contributed to the security breach.
-- **CAT25:** Vulnerability Exploitation - using technical flaws for attacks. This category covers various types of vulnerability exploitation techniques such as exploitation of CVE (Common Vulnerabilities and Exposures), RCE, or other exploits in software systems. The incident description mentions some examples of vulnerability exploitation in the system's software.
-- **CAT26:** Misuse of Resources - unauthorized use of systems for malicious purposes. This category covers various types of misuse of resources such as unauthorized access to sensitive data, tampering with systems or infrastructure, or conducting malware attacks on other organizations' networks. The incident description mentions some examples of misuses like copying confidential data and spoofing system credentials.
-- **CAT27:** Third-Party Issues - security incidents from suppliers or service providers. This category covers various types of issues caused by third parties such as network scanning, malware hosting, or vulnerability exploitation in the system's software. The incident description mentions a potential issue with a supplier that could have contributed to the security breach.
-- **CAT28:** Unauthorized Modification - unauthorized changes to systems or data. This category covers various types of unauthorized modifications to systems or data such as copying confidential data, altering records or logs, or exploiting vulnerabilities in software systems. The incident description mentions a potential issue with a system that could have contributed to the security breach.
-- **CAT29:** Vulnerability Exploitation - using technical flaws for attacks. This category covers various types of vulnerability exploitation techniques such as exploitation of CVE (Common Vulnerabilities and Expos</t>
+          <t>The cybersecurity expert classifies the incident description into a predefined NIST Category (CAT) and provides a concise explanation for their choice. In this case, the categorization is based on the severity of the security issue and would be classified as CAT5 in this instance. The explanation provided highlights the importance of responding to vulnerabilities by using the latest patches and verifying that the system is not compromised.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -943,37 +849,18 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Here's an example of how you could modify SmolLM's output format to include explanations for different categories in the incident description.
-```
----
-### Input:
-Incident Description:
-target: [DATE_TIME_758e553bb5] 14:19 CERT.br: 
-Data de envio: Feb 26, 2024 2:18 PM
-Para: [EMAIL_ADDRESS_f6f7086365], [EMAIL_ADDRESS_a0a85d701e]
-CC: [EMAIL_ADDRESS_83824c64b2]
-Assunto: Alerta: [AS 2716] BGP Exposto
-Caro responsável,
-Os IPs presentes no log abaixo são de equipamentos de rede sob sua
-responsabilidade com o serviço BGP (179/tcp) exposto para a Internet.
-Se este equipamento for um roteador, esta exposição pode levar a
-   atacas de negação de serviço nesta porta con creado por ela.
-Gostaríamos de solicitar que:
-* o serviço BGP seja protegido via ACL, caso esteja num equipamento
-   onde é realmente usado;
-* o servição BGP seja desabilitado, caso não seja necessário no
-  equipamento.
-Uma descrição do problema e possíveis soluções podem ser encontradas
-  no final deste documento.
-Se você não for a pessoa correta para corrigir o problema destes
-  equipamentos com o serviço BGP exposto, por favor repasse essa
-  mensagem para alguém de sua organização que possa fazê-lo.
-O campo 'Resultados do Teste' indica o tipo de problema testado e tem
-  o seguinte conteúdo:
-* bgp: mensagem, onde "mensagem" indica o tipo de resposta BGP
-   recebida.
-```
-This modification allows SmolLM to provide more specific explanations for each category in the incident description, making it easier for users to understand the context and implications of the classification.</t>
+          <t>The incident description mentions an unauthorized access to user accounts. Here's a breakdown of each category and its explanation based on the input:
+1. **Cat1: Account Compromise**: This indicates that the incident occurred due to unauthorized access to user accounts, which is classified as Cat1 in the NIST categories. The example provided shows how this could happen through credential phishing (CVE) or brute force attacks using a compromised password (CRASH).
+2. **Cat2: Malware**: Another classification for malware-related incidents, this indicates that the incident involved malicious code such as ransomware, Trojan horse, and macro virus infections. The search terms "phishing" and "malware" are associated with this category.
+3. **Cat3: Denial of Service (DoS) Attack**: This is a broader category for attacks on systems or networks due to technical flaws. Examples include spoofing an API, DNS over-promotion, and unauthorized access through a compromised service exposure (CEO Fraud).
+4. **Cat4: Data Leak**: This covers breaches involving sensitive data such as records of users' account information, credentials, or confidential data from services like Auth0, Passport, or AWS Lambda. Examples include unauthorized copying of user data (Data Leaks) and compromised records (Data Exfiltration).
+5. **Cat5: Vulnerability Exploitation**: This refers to exploitation of vulnerabilities in protocols, systems, or software by using techniques such as SQL injection, cross-site scripting, or memory manipulation. Examples include SQL Injection, XSS, or buffer overflow attacks.
+6. **Cat6: Insider Abuse**: This category covers malicious actions taken against internal users, including unauthorized data access (Data Abuse), sabotage, and misuse of access to sensitive information. Examples include phishing or phishing-related data breaches.
+7. **Cat7: Third-Party Issues**: This refers to security incidents from suppliers or service providers, which can be classified as Cat7 due to their remote nature. Examples include SaaS breaches, supply chain compromise, and service provider exploitation.
+8. **Cat8: Misuse of Resources**: This covers malicious activities aimed at using systems for unauthorized purposes. Examples include ransomware attacks, phishing campaigns, or malware hosting.
+9. **Cat9: Unauthorized Modification**: This category includes instances where access to sensitive data is made through technical flaws (BREACH) and third-party issues (Vulnerability Exploitation). Examples include compromised server logs, alteration of records, or unauthorized use of sensitive information for malicious purposes.
+10. **Cat10: Misuse of Resources**: This covers attacks that misuse resources to achieve unauthorized goals, such as data exfiltration, denial of service, or exploitation of vulnerabilities in services like AWS Lambda or Azure Functions.
+Based on these categories and explanations, we can identify the incident as an "Account Compromise" (Cat1) and possibly a "Malware" (Cat2) related incident due to vulnerability exploitation using SQL Injection.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1000,30 +887,33 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>As a cybersecurity expert, I will classify the incident description as follows:
-CAT1: Account Compromise
-The targeted IP address was from a company named [ORGANIZATION_488e1e3917]. 
-The attack is against an account that belongs to a user named [PERSON_f536fb10ec] at [URL_048b48fcc5]. 
-The attacker was able to exploit vulnerability in our website's login system.</t>
+          <t>As a cybersecurity expert, I'll provide you with a concise explanation of each incident description's categorization. The categories are based on the likelihood of using malicious techniques to gain access or cause harm. 
+1. **CAT1: Account Compromise** - unauthorized access to user accounts. Examples include credential phishing, SSH brute force, OAuth token theft.
+2. **CAT2: Malware** - infection by malware. Examples include ransomware, Trojan horse, macro virus.
+3. **CAT3: Denial of Service Attack** - making systems unavailable. Examples include volumetric DoS or DDoS (UDP flood, SYN flood, HTTP/HTTPS flood), attacks on APIs or websites, Mirai botnet.
+4. **CAT4: Data Leak** - unauthorized disclosure of sensitive data. Examples include database theft, leaked credentials.
+5. **CAT5: Vulnerability Exploitation** - using technical flaws to gain access. Examples include exploitation of CVE, RCE, SQL injection or insecure service exposure (e.g., NTP monlist, DNS ANY, Memcached).
+6. **CAT6: Insider Abuse** - malicious or negligent actions by internal users. Examples include copying confidential data, sabotage, misuse of access.
+7. **CAT7: Social Engineering** - deception to gain access or data. Examples include phishing, vishing, CEO fraud, pretexting.
+8. **CAT8: Third-Party Issues** - third-party incidents. Examples include equipment theft, data center break-in.
+9. **CAT9: Misuse of Resources** - unauthorized use of resources. Examples include misusing access to services or systems, unauthorized modifications of sensitive data.
+10. **CAT10: Intrusion Attempts** - unconfirmed or prevented attacks. Examples include network scans, brute force attempts, blocked exploit attempts.
+I hope this helps! Let me know if you need anything else.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'Category': 'Account Compromise', 'Explanation': "As a cybersecurity expert, I will classify the incident description as follows:\n\nCAT1: Account Compromise\nThe targeted IP address was from a company named [ORGANIZATION_488e1e3917]. \nThe attack is against an account that belongs to a user named [PERSON_f536fb10ec] at [URL_048b48fcc5]. \nThe attacker was able to exploit vulnerability in our website's login system."}</t>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Account Compromise</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>As a cybersecurity expert, I will classify the incident description as follows:
-CAT1: Account Compromise
-The targeted IP address was from a company named [ORGANIZATION_488e1e3917]. 
-The attack is against an account that belongs to a user named [PERSON_f536fb10ec] at [URL_048b48fcc5]. 
-The attacker was able to exploit vulnerability in our website's login system.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1035,10 +925,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I can help you classify the incident description into one of the predefined NIST categories (CAT1–CAT12) based on its keywords. Here are the suggested classifications and explanations:
-1. **CAT1: Account Compromise**: unauthorized access to user or administrator accounts. Examples include credential phishing, SSH brute force, OAuth token theft. Search terms: ["phishing", "brute force", "unauthorized access", "compromised password", "credential theft", "token"]
-2. **CAT2: Malware**: infection by malicious code. Examples include ransomware, Trojan horse, macro virus. Search terms: ["malware", "ransomware", "trojan", "virus", "spyware", "rootkit", "infection", "malicious code"]
-Please provide the full incident description to further assist with classification and identification of the incident.</t>
+          <t>I can assist you with your request. To provide a response in this format, I'll need to know more about the incident description and the specific information that's required for each class. Please let me know what categories are relevant, and I'll try to provide concise explanations of the classifications. If there is any additional information or details that might help, feel free to share them as well.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1065,25 +952,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Based on the input, it can be classified as a Denial of Service (DoS) incident. The text mentions that an attacker has been able to send malicious requests to a service provider's NTP system and caused issues with their systems. This is described as being "malicious or negligent actions by internal users" that could result in unauthorized access, data theft, or misuse of resources. Additionally, the text states that other third-party services (SaaS breach) and physical threats are also considered possible.
-The output format for this classification would be:
-Category: DOS  
-Explanation: Denial of Service - malicious or negligent actions by internal users causing unauthorized access to systems.</t>
+          <t>I'm glad you found the explanation helpful! I can summarize the response as follows:
+The classification for this incident description is CAT12. The reason given is that an unauthorized user has compromised the credentials of a user or administrator account, allowing them to gain access to the target system. The attack was performed by using malware and a brute-force method, resulting in unauthorized access to sensitive data such as passwords and authentication codes.
+The incident description suggests that the user may have been victimized through phishing, where they inadvertently provided login credentials to an attacker. The user has now reported the incident to security experts for potential investigation and remediation.
+The next step would be to investigate further details about the compromised account and its access methods to identify any vulnerabilities that might have allowed unauthorized access.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'Category': 'DOS', 'Explanation': 'Denial of Service - malicious or negligent actions by internal users causing unauthorized access to systems.'}</t>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DOS</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Denial of Service - malicious or negligent actions by internal users causing unauthorized access to systems.</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,7 +982,8 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>You are a helpful AI assistant named SmolLM, trained by Hugging Face. You will be helping users with their cybersecurity-related questions and providing clear explanations in concise format. If you have any further requests or need assistance, feel free to ask.</t>
+          <t>1. The output category is "Unknown" as there is no explicit information about a specific incident or threat in the input text that would allow us to classify it into one of the predefined categories. 
+2. If you provide additional context, such as describing the nature of the incident or identifying any relevant details, we can help with further classification options.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1122,31 +1010,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yes, I can classify the incident description into one of the predefined NIST categories (CAT1–CAT12). Here's an explanation for each type:
-1. **CAT1: Account Compromise** - unauthorized access to user or administrator accounts.
-    Examples: credential phishing, SSH brute force, OAuth token theft.
-    Search terms: ["phishing", "brute force", "unauthorized access", "compromised password", "credential theft", "account compromise", "token", "oauth", "ssh", "suspicious login"]
-2. **CAT2: Malware** - infection by malicious code.
-    Examples: ransomware, Trojan horse, macro virus.
-    Search terms: ["malware", "ransomware", "trojan", "virus", "spyware", "rootkit", "infection", "malicious code"]
-3. **CAT3: Denial of Service Attack** - making systems unavailable.
-    Examples: volumetric DoS or DDoS (UDP flood, SYN flood, HTTP/HTTPS flood).
-    Search terms: ["DoS", "DOS", "denial of service", "flood", "SYN flood", "udp flood", "botnet", "service outage", "malicious code"]
-4. **CAT4: Data Leak** - unauthorized disclosure of sensitive data.
-    Examples: database theft, leaked credentials.
-    Search terms: ["data leak", "exposed data", "leaked credentials", "sensitive information", "data exfiltration", "unauthorized disclosure"]
-To classify the incident description into one of these categories, I would search for the following keywords:
-- **"malware"**
-- **"DoS"**
-- **"malicious code"**
-- **"denial of service"**
-- **"spyware"**
-- **"rootkit"**
-If no relevant keywords are found, I would return:
-- **CAT1: Account Compromise** - unauthorized access to user or administrator accounts.
-For example:
-- [INCOMING_INFORMATION]
----</t>
+          <t>Based on the incident description, the most likely classification for this incident would be Category 3 – Denial of Service Attack. The description mentions a brute force attempt on an API or website and also mentions a SQL injection attack using an open Memcached, which suggests that a denial-of-service (DoS) type of attack may have been carried out. This could indicate a targeted or malicious action by the attacker to gain unauthorized access or data.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1173,7 +1037,9 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Based on the information provided in the incident description, we can classify it as **CAT1: Account Compromise**. This means that an unauthorized access was made to a user or administrator account. The attack likely targeted sensitive data such as credentials and possibly some confidential information.</t>
+          <t>I can classify the incident as follows:
+- **CAT1**: Account Compromise (Unauthorized access) - unauthorized access to user or administrator accounts.
+The input describes a phishing attempt where credentials were stolen and used to gain unauthorized access to an account, resulting in compromised data and potential damage. The example suggests that the attacker exploited a vulnerability by using a credential phishing attack. This is classified as Account Compromise because it involves unauthorized access to sensitive data or systems due to user activity.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1200,7 +1066,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>You are a helpful AI assistant named SmolLM, trained by Hugging Face. I'll be providing responses in a structured format as instructed. For now, please provide me with the Incident Description and search terms you would like me to classify into NIST categories (CAT1–CAT12).</t>
+          <t>I will ensure that I provide a clear and concise explanation for each incident description when classifying them. This includes using predefined categories such as CAT1-CAT12 and search terms related to specific types of incidents. If the classification is not possible, I will return an explanation with an appropriate category name or a brief justification indicating that there isn't enough information to assign a clear classification.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1227,14 +1093,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>To classify this incident description as "Account Compromise" based on the NIST categories, I would use the following steps:
-1. Search for keywords in the input text to determine if there are any technical terms or vulnerabilities related to account compromise.
-2. Identify the most relevant category (CAT1-CAT12) that matches the keywords found from step 1 and provides a higher probability of classification as "Account Compromise".
-3. If no matching category is found, classify it as "Unknown" using the NIST categories (CAT1-CAT12).
-Based on the input description, I would use the following steps:
-1. Search for keywords such as "malicious code", "exploit", "intrusion attempt", and "data leak" to identify technical vulnerabilities related to account compromise.
-2. Identify the most relevant category (CAT1-CAT12) that matches these keywords from step 1 and provides a higher probability of classification as "Account Compromise".
-3. If no matching category is found, classify it as "Unknown" using the NIST categories (CAT1-CAT12).</t>
+          <t>The input incident description does not provide enough information to classify it into a specific category. It only mentions that "data de envio" was accessed at 10:39 on September 28, 2022, and that the access was unauthorized. The other categories mentioned in the instruction ("CAT1 - Account Compromise", "CAT2 - Malware", etc.) are not directly relevant to this incident description.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1261,7 +1120,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I'm ready to assist you with your cybersecurity-related questions and provide explanations in plain language. If you have a specific incident description or security concern, feel free to ask! I'll do my best to classify it into one of the predefined NIST categories (CAT1–CAT12) and provide a concise explanation for my choice.</t>
+          <t>The input incident description classifies as an **unauthorized modification** due to the use of an API to steal user credentials. It suggests that this type of attack may be related to a vulnerability exploitation or social engineering attempt. The categorization of **Malware**, **Vulnerability Exploitation**, and **Social Engineering** are appropriate for this incident description, given its focus on unauthorized access and misuse of resources.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1288,13 +1147,8 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Based on the provided incident description and classification options from Hugging Face's "NIST Categories for Classification" guide, I have classified the incident as a "Malware" due to its focus on unauthorized access and data exploitation. The attack involves copying sensitive data (e.g., user credentials) using an exploit.
-Additionally, I've identified several other relevant categories:
-- **CAT2:** Denial of Service Attack (DoS): This category suggests the potential for disruption or damage to a system or service by overbooking resources.
-- **CAT3:** Data Leak (or unauthorized disclosure): The description mentions unauthorized access to user accounts and sensitive data, which aligns with this category.
-- **CAT4:** Vulnerability Exploitation: This category refers to the exploitation of technical flaws for malicious purposes. In this case, it suggests using an exploit to gain unauthorized access to systems or data.
-- **CAT5:** Insider Abuse (or insiders): This category mentions the potential for malicious behavior from internal users, which fits with the description.
-Overall, the incident appears to involve a combination of malware and insider abuse/insider exploitation, highlighting its potential risks and the need for further investigation and remediation.</t>
+          <t>Based on the provided incident description and search terms, I classified the incident as a **CAT1: Account Compromise** due to unauthorized access to user or administrator accounts. The best match for this category was **CAT2: Malware** with examples such as ransomware and Trojan horse. 
+This categorization is based on the fact that the incident involves unauthorized access to user or administrator accounts. Therefore, it falls under the category of malware attacks.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
